--- a/cases/2021sxzxyy/项目设置.xlsx
+++ b/cases/2021sxzxyy/项目设置.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\hqcoffee\cases\2021sxzxyy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CAD5D-2222-4418-BADE-F0B3D052DDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="二级指标设置" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="三级指标设置" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="科室设置" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="一级指标设置" sheetId="1" r:id="rId1"/>
+    <sheet name="二级指标设置" sheetId="2" r:id="rId2"/>
+    <sheet name="三级指标设置" sheetId="3" r:id="rId3"/>
+    <sheet name="科室设置" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,87 +28,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="193">
-  <si>
-    <t xml:space="preserve">数据名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">权重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗质量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持续发展</t>
-  </si>
-  <si>
-    <t xml:space="preserve">满意度评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">运营效率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上级指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">功能定位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医保价值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合理用药</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务流程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">质量安全</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学科建设</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医服收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地位影响</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">费用控制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资源效率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">适用范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标导向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计量单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标来源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三级中医</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三级综合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级综合</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="207">
+  <si>
+    <t>数据名</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>医疗质量</t>
+  </si>
+  <si>
+    <t>持续发展</t>
+  </si>
+  <si>
+    <t>满意度评价</t>
+  </si>
+  <si>
+    <t>运营效率</t>
+  </si>
+  <si>
+    <t>上级指标</t>
+  </si>
+  <si>
+    <t>功能定位</t>
+  </si>
+  <si>
+    <t>医保价值</t>
+  </si>
+  <si>
+    <t>合理用药</t>
+  </si>
+  <si>
+    <t>服务流程</t>
+  </si>
+  <si>
+    <t>质量安全</t>
+  </si>
+  <si>
+    <t>人员结构</t>
+  </si>
+  <si>
+    <t>人才培养</t>
+  </si>
+  <si>
+    <t>学科建设</t>
+  </si>
+  <si>
+    <t>医服收入</t>
+  </si>
+  <si>
+    <t>地位影响</t>
+  </si>
+  <si>
+    <t>收支结构</t>
+  </si>
+  <si>
+    <t>费用控制</t>
+  </si>
+  <si>
+    <t>资源效率</t>
+  </si>
+  <si>
+    <t>适用范围</t>
+  </si>
+  <si>
+    <t>指标导向</t>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>指标来源</t>
+  </si>
+  <si>
+    <t>三级中医</t>
+  </si>
+  <si>
+    <t>三级综合</t>
+  </si>
+  <si>
+    <t>二级综合</t>
   </si>
   <si>
     <r>
@@ -114,7 +119,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
+      <t>CMI</t>
     </r>
     <r>
       <rPr>
@@ -124,17 +129,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">值</t>
+      <t>值</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">高优</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新编医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自</t>
+    <t>高优</t>
+  </si>
+  <si>
+    <t>自制医院填报</t>
+  </si>
+  <si>
+    <t>自</t>
   </si>
   <si>
     <r>
@@ -145,7 +150,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
+      <t>CMI</t>
     </r>
     <r>
       <rPr>
@@ -155,7 +160,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">当量</t>
+      <t>当量</t>
     </r>
     <r>
       <rPr>
@@ -165,7 +170,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DRGs</t>
+      <t>DRGs</t>
     </r>
     <r>
       <rPr>
@@ -175,14 +180,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">组数</t>
+      <t>组数</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">自算</t>
-  </si>
-  <si>
-    <t xml:space="preserve">算</t>
+    <t>组</t>
+  </si>
+  <si>
+    <t>自制计算值</t>
+  </si>
+  <si>
+    <t>算</t>
   </si>
   <si>
     <r>
@@ -193,7 +201,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DRGs</t>
+      <t>DRGs</t>
     </r>
     <r>
       <rPr>
@@ -203,11 +211,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">组数</t>
+      <t>组数</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">无标准</t>
+    <t>无标准</t>
   </si>
   <si>
     <r>
@@ -218,7 +226,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">I</t>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -228,11 +236,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">类切口手术部位感染率</t>
+      <t>类切口手术部位感染率</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">逐步降低</t>
+    <t>逐步降低</t>
   </si>
   <si>
     <r>
@@ -243,7 +251,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">百分比（</t>
+      <t>百分比（</t>
     </r>
     <r>
       <rPr>
@@ -253,7 +261,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">%</t>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -263,20 +271,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">病案首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">监</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万元收入能耗占比</t>
+    <t>病案首页</t>
+  </si>
+  <si>
+    <t>监</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>万元收入能耗占比</t>
   </si>
   <si>
     <r>
@@ -287,7 +295,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">吨标煤</t>
+      <t>吨标煤</t>
     </r>
     <r>
       <rPr>
@@ -297,7 +305,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -307,107 +315,104 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">万元</t>
+      <t>万元</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">财务年报表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逐步提高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家医疗机构、医师、护士电子化注册系统</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医类别执业医师含执业助理医师占执业医师总数比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员支出占业务支出比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医病案首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优质护理服务病房覆盖率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">低风险组病例死亡率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务年报表、医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿科医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者三级手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者四级手术比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者微创手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医护比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有标准</t>
+    <t>财务年报表</t>
+  </si>
+  <si>
+    <t>下转患者人次数</t>
+  </si>
+  <si>
+    <t>逐步提高</t>
+  </si>
+  <si>
+    <t>人次</t>
+  </si>
+  <si>
+    <t>医院填报</t>
+  </si>
+  <si>
+    <t>考</t>
+  </si>
+  <si>
+    <t>中医医师占比</t>
+  </si>
+  <si>
+    <t>国家医疗机构、医师、护士电子化注册系统</t>
+  </si>
+  <si>
+    <t>中医类别执业医师含执业助理医师占执业医师总数比例</t>
+  </si>
+  <si>
+    <t>中药收入占药品收入比例</t>
+  </si>
+  <si>
+    <t>中药饮片收入占药品收入比例</t>
+  </si>
+  <si>
+    <t>人员支出占业务支出比重</t>
+  </si>
+  <si>
+    <t>人才培养经费投入占比</t>
+  </si>
+  <si>
+    <t>以中医为主治疗的出院患者比例</t>
+  </si>
+  <si>
+    <t>中医病案首页</t>
+  </si>
+  <si>
+    <t>优质护理服务病房覆盖率</t>
+  </si>
+  <si>
+    <t>低风险组病例死亡率</t>
+  </si>
+  <si>
+    <t>住院下转患者人次数</t>
+  </si>
+  <si>
+    <t>住院中医医疗服务项目收入占住院医疗收入比例</t>
+  </si>
+  <si>
+    <t>财务年报表、医院填报</t>
+  </si>
+  <si>
+    <t>住院患者基本药物使用率</t>
+  </si>
+  <si>
+    <t>住院次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>住院次均费用增幅</t>
+  </si>
+  <si>
+    <t>儿科医师占比</t>
+  </si>
+  <si>
+    <t>出院患者三级手术占比</t>
+  </si>
+  <si>
+    <t>出院患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t>出院患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t>出院患者四级手术比例</t>
+  </si>
+  <si>
+    <t>出院患者微创手术占比</t>
+  </si>
+  <si>
+    <t>出院患者手术占比</t>
+  </si>
+  <si>
+    <t>医护比</t>
+  </si>
+  <si>
+    <t>有标准</t>
   </si>
   <si>
     <r>
@@ -418,7 +423,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">比值（</t>
+      <t>比值（</t>
     </r>
     <r>
       <rPr>
@@ -428,7 +433,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1:X</t>
+      <t>1:X</t>
     </r>
     <r>
       <rPr>
@@ -438,104 +443,95 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">医师人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师人数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗收入增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">低优</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占全院比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗机构中药制剂收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对口支援医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医联体内医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卫生技术人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级招采平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级药品集中采购平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外省住院患者占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实际开放床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开放床位使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手术患者并发症发生率</t>
+    <t>医师人数</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>医师人数与开放床位数比</t>
+  </si>
+  <si>
+    <t>医疗收入增幅</t>
+  </si>
+  <si>
+    <t>低优</t>
+  </si>
+  <si>
+    <t>医疗服务收入</t>
+  </si>
+  <si>
+    <t>万元</t>
+  </si>
+  <si>
+    <t>医疗收入</t>
+  </si>
+  <si>
+    <t>医疗服务收入三年复合增长率</t>
+  </si>
+  <si>
+    <t>医疗服务收入占全院比重</t>
+  </si>
+  <si>
+    <t>医疗服务收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t>医疗机构中药制剂收入占药品收入比例</t>
+  </si>
+  <si>
+    <t>医院住院医师首次参加医师资格考试通过率</t>
+  </si>
+  <si>
+    <t>国家卫生健康委</t>
+  </si>
+  <si>
+    <t>医院感染管理专职人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t>博士研究生导师占比</t>
+  </si>
+  <si>
+    <t>卫生技术人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t>国家组织药品集中采购中标药品金额占比</t>
+  </si>
+  <si>
+    <t>基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t>省级招采平台</t>
+  </si>
+  <si>
+    <t>基本药物采购金额占比</t>
+  </si>
+  <si>
+    <t>省级药品集中采购平台</t>
+  </si>
+  <si>
+    <t>外省住院患者占比</t>
+  </si>
+  <si>
+    <t>实际开放床位数</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>平均住院日</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>开放床位使用率</t>
+  </si>
+  <si>
+    <t>手术患者并发症发生率</t>
   </si>
   <si>
     <r>
@@ -546,7 +542,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">抗菌药物使用强度</t>
+      <t>抗菌药物使用强度</t>
     </r>
     <r>
       <rPr>
@@ -556,149 +552,155 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DDDs</t>
+      <t>DDDs</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护士人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护士人数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结余</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核定床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电子病历应用功能水平分级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">级别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病理医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硕士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资产负债率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点学科等级评分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控药品收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重症医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门急诊下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中药处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非医嘱离院率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻醉医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为区卫健委重点专科</t>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>护士人数</t>
+  </si>
+  <si>
+    <t>护士人数与开放床位数比</t>
+  </si>
+  <si>
+    <t>护理人员系统接受中医药知识和技能培训比例</t>
+  </si>
+  <si>
+    <t>收支结余</t>
+  </si>
+  <si>
+    <t>次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>次均费用增幅</t>
+  </si>
+  <si>
+    <t>有效收入</t>
+  </si>
+  <si>
+    <t>核定床位数</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员中医药科研成果转化金额</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员中医药科研项目经费</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员科研成果转化金额</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员科研项目经费</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员重点专科经费投入</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员重点学科经费投入</t>
+  </si>
+  <si>
+    <t>点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t>点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t>电子病历应用功能水平分级</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>病理医师占比</t>
+  </si>
+  <si>
+    <t>省级室间质量评价临床检验项目参加率</t>
+  </si>
+  <si>
+    <t>省级卫生健康委</t>
+  </si>
+  <si>
+    <t>省级室间质量评价临床检验项目合格率</t>
+  </si>
+  <si>
+    <t>硕士研究生导师占比</t>
+  </si>
+  <si>
+    <t>资产负债率</t>
+  </si>
+  <si>
+    <t>通过国家室间质量评价的临床检验项目数</t>
+  </si>
+  <si>
+    <t>重点学科等级评分</t>
+  </si>
+  <si>
+    <t>重点监控药品收入占比</t>
+  </si>
+  <si>
+    <t>重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t>重症医师占比</t>
+  </si>
+  <si>
+    <t>门急诊下转患者人次数</t>
+  </si>
+  <si>
+    <t>门诊中医医疗服务项目收入占门诊医疗收入比例</t>
+  </si>
+  <si>
+    <t>门诊中药处方比例</t>
+  </si>
+  <si>
+    <t>门诊患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t>门诊患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t>门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t>门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t>门诊患者预约后平均等待时间</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>门诊散装中药饮片和小包装中药饮片处方比例</t>
+  </si>
+  <si>
+    <t>门诊次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>门诊次均费用增幅</t>
+  </si>
+  <si>
+    <t>非医嘱离院率</t>
+  </si>
+  <si>
+    <t>麻醉医师占比</t>
+  </si>
+  <si>
+    <t>医院在医学人才培养方面的经费投入占比</t>
+  </si>
+  <si>
+    <t>临床带教教师和指导医师接受教育教学培训占比</t>
+  </si>
+  <si>
+    <t>发表教学文章数与卫生技术人员数之比</t>
+  </si>
+  <si>
+    <t>是否为教育部或科技部重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -707,9 +709,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -719,7 +720,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -727,9 +728,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -739,11 +739,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为区教育局或科技局重点学科或实验室</t>
+    <t>分</t>
+  </si>
+  <si>
+    <t>是否为国家卫健委临床重点专科</t>
   </si>
   <si>
     <r>
@@ -752,9 +755,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -764,7 +766,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -772,9 +774,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -784,11 +785,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
+    <t>是否为国家中医药局重点专科</t>
+  </si>
+  <si>
+    <t>是否为省教育厅或科技厅重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -797,9 +801,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -809,7 +812,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -817,9 +820,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -829,11 +831,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
+    <t>是否为省卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -842,9 +844,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -854,7 +855,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -862,9 +863,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -874,11 +874,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为市卫健委重点专科</t>
+    <t>是否为省中医药局重点专科</t>
+  </si>
+  <si>
+    <t>是否为地级市教育局或科技局重点学科或实验室</t>
   </si>
   <si>
     <r>
@@ -887,9 +890,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -899,7 +901,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -907,9 +909,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -919,11 +920,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为市教育厅或科技厅重点学科或重点实验室</t>
+    <t>是否为地级卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -932,9 +933,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -944,7 +944,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -952,9 +952,8 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -964,90 +963,204 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院医学教育专职管理人员数与与医院教育培训学员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">篇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选项</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心胸外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泌尿外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神经外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妇产科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内分泌科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">老年医学科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神经内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心血管内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼吸内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消化内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肾内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重症医学科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">感染科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肝病科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">康复医学科</t>
+    <t>是否为地级中医药局重点专科</t>
+  </si>
+  <si>
+    <t>是否为县级市教育局或科技局重点学科或实验室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>是否为县级卫健委重点专科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>是否为县级中医药局重点专科</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>普外科</t>
+  </si>
+  <si>
+    <t>心胸外科</t>
+  </si>
+  <si>
+    <t>泌尿外科</t>
+  </si>
+  <si>
+    <t>神经外科</t>
+  </si>
+  <si>
+    <t>妇产科</t>
+  </si>
+  <si>
+    <t>儿外科</t>
+  </si>
+  <si>
+    <t>儿内科</t>
+  </si>
+  <si>
+    <t>内分泌科</t>
+  </si>
+  <si>
+    <t>老年医学科</t>
+  </si>
+  <si>
+    <t>神经内科</t>
+  </si>
+  <si>
+    <t>心血管内科</t>
+  </si>
+  <si>
+    <t>呼吸内科</t>
+  </si>
+  <si>
+    <t>消化内科</t>
+  </si>
+  <si>
+    <t>肾内科</t>
+  </si>
+  <si>
+    <t>重症医学科</t>
+  </si>
+  <si>
+    <t>感染科</t>
+  </si>
+  <si>
+    <t>肝病科</t>
+  </si>
+  <si>
+    <t>康复医学科</t>
+  </si>
+  <si>
+    <t>医院医学教育专职管理人员数与医院教育培训学员数之比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院手术患者围手术期中医治疗比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对口支援医院进修人员并返回原医院人员占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医联体内医院进修人员并返回原医院人员占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他医院进修人员并返回原医院人员占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无标准</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理法方药使用一致的出院患者比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为区卫健委重点专科</t>
+  </si>
+  <si>
+    <t>是否为区教育局或科技局重点学科或实验室</t>
+  </si>
+  <si>
+    <t>是否为市卫健委重点专科</t>
+  </si>
+  <si>
+    <t>是否为市教育厅或科技厅重点学科或重点实验室</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1056,26 +1169,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1087,7 +1197,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1095,70 +1205,340 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,67 +1546,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,143 +1610,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>0.3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1381,37 +1754,31 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
+    <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="10" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,17 +1810,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.618</v>
+      <c r="B2">
+        <v>0.61799999999999999</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1472,47 +1839,53 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.382</v>
+      <c r="B3">
+        <v>0.38200000000000001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16">
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
@@ -1527,739 +1900,739 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2269,35 +2642,37 @@
         <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2308,23 +2683,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2335,43 +2712,43 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2380,7 +2757,9 @@
       <c r="F34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2391,23 +2770,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="16">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2418,165 +2799,165 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>0.382</v>
+      <c r="B36">
+        <v>0.38200000000000001</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>0.618</v>
+      <c r="B37">
+        <v>0.61799999999999999</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2585,7 +2966,9 @@
       <c r="F41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="1" t="s">
         <v>30</v>
       </c>
@@ -2596,108 +2979,108 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="16">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16">
       <c r="A45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>29</v>
@@ -2712,21 +3095,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="16">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>30</v>
       </c>
@@ -2737,108 +3124,108 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="16">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>29</v>
@@ -2853,23 +3240,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10" ht="16">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H51" s="1" t="s">
         <v>30</v>
       </c>
@@ -2880,24 +3269,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10" ht="16">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>30</v>
@@ -2906,26 +3295,28 @@
         <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="16">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2936,81 +3327,83 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10" ht="16">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>111</v>
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>108</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>30</v>
       </c>
@@ -3021,14 +3414,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10" ht="16">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -3037,7 +3430,9 @@
       <c r="F57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>30</v>
       </c>
@@ -3048,130 +3443,130 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:10" ht="16">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="16">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="16">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="1">
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3180,7 +3575,9 @@
       <c r="F62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>30</v>
       </c>
@@ -3191,23 +3588,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:10" ht="16">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" s="1">
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>30</v>
       </c>
@@ -3218,398 +3617,398 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:10" ht="16">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="1">
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="1">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16">
+      <c r="A67" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="1">
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16">
       <c r="A68" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16">
       <c r="A69" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16">
       <c r="A72" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16">
       <c r="A74" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="1">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16">
       <c r="A75" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16">
       <c r="A76" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D76" s="1">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>29</v>
@@ -3624,511 +4023,511 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:10" ht="16">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="1">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16">
       <c r="A79" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="1">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="D80" s="1">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16">
       <c r="A81" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="D81" s="1">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16">
       <c r="A82" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="D82" s="1">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16">
       <c r="A83" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="D84" s="1">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" s="1">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16">
       <c r="A86" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D86" s="1">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16">
       <c r="A87" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D87" s="1">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16">
       <c r="A88" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="1" t="n">
+      <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16">
       <c r="A89" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="D89" s="1">
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16">
       <c r="A90" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="1" t="n">
+      <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16">
       <c r="A91" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16">
       <c r="A92" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" s="1">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16">
       <c r="A93" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" s="1">
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="1" t="n">
+      <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16">
       <c r="A95" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="1" t="n">
+      <c r="D95" s="1">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>29</v>
@@ -4143,155 +4542,173 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:10" ht="16">
       <c r="A96" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="1" t="n">
+      <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16">
       <c r="A97" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16">
+      <c r="A98" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16">
+      <c r="A100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16">
+      <c r="A101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F101" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H101" s="1" t="s">
         <v>30</v>
       </c>
@@ -4302,22 +4719,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>168</v>
+    <row r="102" spans="1:10" ht="16">
+      <c r="A102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H102" s="1" t="s">
         <v>30</v>
       </c>
@@ -4328,307 +4751,534 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:10" ht="16">
+      <c r="A103" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16">
+      <c r="A104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16">
+      <c r="A105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16">
+      <c r="A106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16">
+      <c r="A107" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16">
+      <c r="A108" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16">
+      <c r="A109" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="B109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16">
+      <c r="A110" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>41</v>
+      <c r="C110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16">
+      <c r="A111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16">
+      <c r="A112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16">
+      <c r="A114" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="16">
+      <c r="A115" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="16">
+      <c r="A116" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="16">
+      <c r="A117" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="16">
+      <c r="A118" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="16">
+      <c r="A119" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
       <c r="A9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
       <c r="A12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
       <c r="A13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
       <c r="A15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
       <c r="A16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
       <c r="A17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
       <c r="A18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
       <c r="A19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
